--- a/workbooks/courseleafPatchControlNew.xlsx
+++ b/workbooks/courseleafPatchControlNew.xlsx
@@ -9,16 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="cat" sheetId="1" r:id="rId2"/>
     <sheet name="cim" sheetId="2" r:id="rId3"/>
     <sheet name="cgis" sheetId="10" r:id="rId4"/>
-    <sheet name="pdfgen" sheetId="9" r:id="rId5"/>
-    <sheet name="formbuilder" sheetId="8" r:id="rId6"/>
-    <sheet name="-Include-CGIs" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="-Include-CGIs" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
   <si>
     <t>git</t>
   </si>
@@ -317,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1474,7 +1472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="37" t="s">
         <v>23</v>
       </c>
@@ -1495,10 +1493,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,154 +1557,232 @@
       </c>
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>43</v>
-      </c>
+      <c r="A8" s="16"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="11"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>17</v>
+      <c r="A11" s="16" t="s">
+        <v>0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="25" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="11"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1717,10 +1793,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,13 +1835,17 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1792,50 +1872,56 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="28"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1848,7 +1934,7 @@
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,175 +2047,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="D9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>

--- a/workbooks/courseleafPatchControlNew.xlsx
+++ b/workbooks/courseleafPatchControlNew.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="10665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="-Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="cat" sheetId="1" r:id="rId2"/>
     <sheet name="cim" sheetId="2" r:id="rId3"/>
     <sheet name="cgis" sheetId="10" r:id="rId4"/>
-    <sheet name="-Include-CGIs" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
   <si>
     <t>git</t>
   </si>
@@ -45,18 +44,9 @@
     <t>/web/courseleaf/js/ckeditor</t>
   </si>
   <si>
-    <t>/web/ribbit/ribbit.cgi</t>
-  </si>
-  <si>
-    <t>ribbit.cgi</t>
-  </si>
-  <si>
     <t>Target (Relative to siteDir)</t>
   </si>
   <si>
-    <t>Ignore List</t>
-  </si>
-  <si>
     <t>/bin</t>
   </si>
   <si>
@@ -114,25 +104,16 @@
     <t>chmod 750 ./web/&lt;progDir&gt;</t>
   </si>
   <si>
-    <t>chmod 750 ./web/ribbit/ribbit.cgi</t>
-  </si>
-  <si>
     <t>&lt;progDir&gt;.cgi</t>
   </si>
   <si>
     <t>chmod 750 ./web/&lt;progDir&gt;/&lt;progDir&gt;.cgi</t>
   </si>
   <si>
-    <t>#command</t>
-  </si>
-  <si>
     <t>/email</t>
   </si>
   <si>
     <t>/web/search/index.cgi</t>
-  </si>
-  <si>
-    <t>chmod 750 ./web/search/index.cgi</t>
   </si>
   <si>
     <t>/web/ribbit/index.cgi</t>
@@ -668,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -749,9 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1117,13 +1095,13 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="32"/>
-      <c r="C1" s="64" t="s">
-        <v>87</v>
+      <c r="C1" s="63" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:3" s="6" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="35"/>
     </row>
@@ -1132,11 +1110,11 @@
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="61">
+      <c r="B4" s="60">
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1145,7 +1123,7 @@
     </row>
     <row r="6" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="30"/>
     </row>
@@ -1154,299 +1132,299 @@
       <c r="C7" s="30"/>
     </row>
     <row r="8" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="46"/>
+    </row>
+    <row r="9" spans="2:3" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+    </row>
+    <row r="14" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="47"/>
-    </row>
-    <row r="9" spans="2:3" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="52" t="s">
+    </row>
+    <row r="15" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="44" t="s">
+    <row r="18" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+    </row>
+    <row r="19" spans="2:3" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B19" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+    </row>
+    <row r="25" spans="2:3" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
+    <row r="27" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="54" t="s">
+    </row>
+    <row r="28" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+    </row>
+    <row r="30" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-    </row>
-    <row r="14" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-    </row>
-    <row r="19" spans="2:3" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="52" t="s">
+    <row r="34" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+    </row>
+    <row r="35" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="43"/>
+    </row>
+    <row r="38" spans="2:3" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B38" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+    </row>
+    <row r="40" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="58" t="s">
+    <row r="41" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="54" t="s">
+    </row>
+    <row r="42" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="59" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-    </row>
-    <row r="25" spans="2:3" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-    </row>
-    <row r="30" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="52" t="s">
+    <row r="43" spans="2:3" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B43" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="44" t="s">
+    <row r="44" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+    </row>
+    <row r="45" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-    </row>
-    <row r="35" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="44"/>
-    </row>
-    <row r="38" spans="2:3" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B38" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-    </row>
-    <row r="40" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B43" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="56"/>
-      <c r="C44" s="57"/>
-    </row>
-    <row r="45" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
     <row r="47" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>66</v>
+      <c r="B47" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="45" t="s">
-        <v>66</v>
+      <c r="B48" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -1454,9 +1432,9 @@
       <c r="C49" s="30"/>
     </row>
     <row r="50" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="63" t="s">
-        <v>85</v>
+      <c r="A50" s="61"/>
+      <c r="B50" s="62" t="s">
+        <v>79</v>
       </c>
       <c r="C50" s="30"/>
     </row>
@@ -1466,18 +1444,18 @@
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,8 +1473,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,13 +1490,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1526,34 +1504,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="43"/>
+        <v>82</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1568,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,65 +1586,65 @@
         <v>0</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,37 +1655,37 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -1719,10 +1697,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
@@ -1735,13 +1713,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="C23" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -1753,13 +1731,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -1796,7 +1774,7 @@
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1826,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D3" s="25"/>
     </row>
@@ -1838,36 +1816,36 @@
         <v>0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D6" s="11"/>
     </row>
@@ -1879,41 +1857,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
-      <c r="B10" s="41"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="10"/>
       <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -1933,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,36 +1928,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>29</v>
+      <c r="B3" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -1987,23 +1965,23 @@
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>71</v>
+      <c r="B5" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="28"/>
     </row>
@@ -2011,11 +1989,11 @@
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>72</v>
+      <c r="B7" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -2044,146 +2022,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="D15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>